--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\current_work\deal-record\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292B886-662D-48A4-8E5A-706DBFE82D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B73BA-0A80-41A0-9529-DA3D4FF1BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35340" yWindow="2745" windowWidth="5295" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1363,6 +1363,180 @@
         <v>33804</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
+        <f>"20200408"</f>
+        <v>20200408</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>"13:18:53"</f>
+        <v>13:18:53</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>"513520"</f>
+        <v>513520</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>"日经ETF"</f>
+        <v>日经ETF</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2769</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2768.72</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f>"11578780"</f>
+        <v>11578780</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f>"159187"</f>
+        <v>159187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="str">
+        <f>"20200410"</f>
+        <v>20200410</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>"14:56:23"</f>
+        <v>14:56:23</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>"512580"</f>
+        <v>512580</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>"环保ETF"</f>
+        <v>环保ETF</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3300</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2488.1999999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-2488.4499999999998</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f>"16823495"</f>
+        <v>16823495</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f>"352561"</f>
+        <v>352561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
+        <f>"20200410"</f>
+        <v>20200410</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>"14:54:07"</f>
+        <v>14:54:07</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>"512980"</f>
+        <v>512980</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>"传媒ETF"</f>
+        <v>传媒ETF</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3100</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2504.8000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-4993.5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f>"16798477"</f>
+        <v>16798477</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f>"353394"</f>
+        <v>353394</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B73BA-0A80-41A0-9529-DA3D4FF1BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B34770-4FCC-41EF-9047-BAC4EA75129C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="2745" windowWidth="5295" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>20200417</t>
+  </si>
+  <si>
+    <t>09:46:31</t>
+  </si>
+  <si>
+    <t>A634757556</t>
+  </si>
+  <si>
+    <t>512980</t>
+  </si>
+  <si>
+    <t>传媒ETF</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>3045170</t>
+  </si>
+  <si>
+    <t>20741</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1537,6 +1566,56 @@
         <v>353394</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H21">
+        <v>2900</v>
+      </c>
+      <c r="I21">
+        <v>2415.6999999999998</v>
+      </c>
+      <c r="J21">
+        <v>2415.46</v>
+      </c>
+      <c r="K21">
+        <v>0.24</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B34770-4FCC-41EF-9047-BAC4EA75129C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57787943-3EA6-4325-A21B-BD9C8E20E904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,9 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1616,6 +1628,645 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="str">
+        <f>"20200427"</f>
+        <v>20200427</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>"14:47:32"</f>
+        <v>14:47:32</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>"0184500716"</f>
+        <v>0184500716</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>"159920"</f>
+        <v>159920</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>"恒生ETF"</f>
+        <v>恒生ETF</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8283.7999999999993</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8282.9699999999993</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f>"0104000024106259"</f>
+        <v>0104000024106259</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f>"178130"</f>
+        <v>178130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="str">
+        <f>"20200427"</f>
+        <v>20200427</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>"14:57:57"</f>
+        <v>14:57:57</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" ref="C23:C30" si="1">"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>"513520"</f>
+        <v>513520</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>"日经ETF"</f>
+        <v>日经ETF</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5730</v>
+      </c>
+      <c r="J23" s="1">
+        <v>14012.4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f>"15839211"</f>
+        <v>15839211</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>"180834"</f>
+        <v>180834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>"09:30:52"</f>
+        <v>09:30:52</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.6970000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8800</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50133.599999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-50138.41</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f>"456296"</f>
+        <v>456296</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f>"19518"</f>
+        <v>19518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>"09:57:07"</f>
+        <v>09:57:07</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>"512980"</f>
+        <v>512980</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>"传媒ETF"</f>
+        <v>传媒ETF</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3100</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2442.8000000000002</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-52581.45</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f>"5360453"</f>
+        <v>5360453</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>"69933"</f>
+        <v>69933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="str">
+        <f>"20200428"</f>
+        <v>20200428</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>"10:02:11"</f>
+        <v>10:02:11</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.556</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4100</v>
+      </c>
+      <c r="I26" s="1">
+        <v>22779.599999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-75363.33</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f>"6590954"</f>
+        <v>6590954</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f>"83953"</f>
+        <v>83953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="str">
+        <f>"20200429"</f>
+        <v>20200429</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>"00:00:00"</f>
+        <v>00:00:00</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>"501018"</f>
+        <v>501018</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>"南方原油"</f>
+        <v>南方原油</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>"托管转入"</f>
+        <v>托管转入</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8925</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6400.1174999999994</v>
+      </c>
+      <c r="J27" s="1">
+        <v>32499.5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f>"份额变动"</f>
+        <v>份额变动</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="str">
+        <f>"20200429"</f>
+        <v>20200429</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>"00:00:00"</f>
+        <v>00:00:00</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>"501018"</f>
+        <v>501018</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>"南方原油"</f>
+        <v>南方原油</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>"托管转入"</f>
+        <v>托管转入</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2324</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1666.5403999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>32499.5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f>"份额变动"</f>
+        <v>份额变动</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="str">
+        <f>"20200430"</f>
+        <v>20200430</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>"09:53:05"</f>
+        <v>09:53:05</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>"515180"</f>
+        <v>515180</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>"100红利"</f>
+        <v>100红利</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2480.4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6980.15</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f>"3735874"</f>
+        <v>3735874</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f>"51961"</f>
+        <v>51961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="str">
+        <f>"20200506"</f>
+        <v>20200506</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>"11:16:20"</f>
+        <v>11:16:20</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A634757556</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>"501018"</f>
+        <v>501018</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>"南方原油"</f>
+        <v>南方原油</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11249</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7773.06</v>
+      </c>
+      <c r="J30" s="1">
+        <v>70772.320000000007</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f>"10323131"</f>
+        <v>10323131</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f>"140684"</f>
+        <v>140684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57787943-3EA6-4325-A21B-BD9C8E20E904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4087B2E7-0F5B-4702-A8FF-B533D15F8C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -112,6 +115,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +403,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1944,13 +1950,13 @@
         <v>托管转入</v>
       </c>
       <c r="G27" s="2">
-        <v>0.71709999999999996</v>
+        <v>0.71619999999999995</v>
       </c>
       <c r="H27" s="1">
         <v>8925</v>
       </c>
       <c r="I27" s="3">
-        <v>6400.1174999999994</v>
+        <v>6392.09</v>
       </c>
       <c r="J27" s="1">
         <v>32499.5</v>
@@ -2002,13 +2008,13 @@
         <v>托管转入</v>
       </c>
       <c r="G28" s="2">
-        <v>0.71709999999999996</v>
+        <v>0.71619999999999995</v>
       </c>
       <c r="H28" s="1">
-        <v>2324</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1666.5403999999999</v>
+        <v>2324.77</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1665</v>
       </c>
       <c r="J28" s="1">
         <v>32499.5</v>

--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4087B2E7-0F5B-4702-A8FF-B533D15F8C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76024C-41FD-43DF-A4DD-99961D80DB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2157,69 +2157,412 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="1" t="str">
+        <f>"20200519"</f>
+        <v>20200519</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>"09:31:36"</f>
+        <v>09:31:36</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10758.6</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-10759.68</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f>"650664"</f>
+        <v>650664</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f>"21491"</f>
+        <v>21491</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="str">
+        <f>"20200522"</f>
+        <v>20200522</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>"10:35:46"</f>
+        <v>10:35:46</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10530</v>
+      </c>
+      <c r="J32" s="1">
+        <v>257.95</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f>"6575351"</f>
+        <v>6575351</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f>"90024"</f>
+        <v>90024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="str">
+        <f>"20200522"</f>
+        <v>20200522</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>"13:03:48"</f>
+        <v>13:03:48</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>"0184500716"</f>
+        <v>0184500716</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>"159920"</f>
+        <v>159920</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>"恒生ETF"</f>
+        <v>恒生ETF</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2365.1999999999998</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-2107.4899999999998</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f>"0104000016030225"</f>
+        <v>0104000016030225</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f>"129818"</f>
+        <v>129818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="str">
+        <f>"20200526"</f>
+        <v>20200526</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>"09:31:18"</f>
+        <v>09:31:18</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>"513520"</f>
+        <v>513520</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>"日经ETF"</f>
+        <v>日经ETF</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2448</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2447.7600000000002</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f>"471565"</f>
+        <v>471565</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>"15455"</f>
+        <v>15455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="str">
+        <f>"20200527"</f>
+        <v>20200527</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>"10:18:41"</f>
+        <v>10:18:41</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5.8390000000000004</v>
+      </c>
+      <c r="H35" s="1">
+        <v>900</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5255.1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8744.4699999999993</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f>"5454024"</f>
+        <v>5454024</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f>"108154"</f>
+        <v>108154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="str">
+        <f>"20200527"</f>
+        <v>20200527</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>"14:28:35"</f>
+        <v>14:28:35</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>"A634757556"</f>
+        <v>A634757556</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>"510500"</f>
+        <v>510500</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>"500ETF"</f>
+        <v>500ETF</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="H36" s="1">
+        <v>900</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5229</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3514.95</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f>"13491803"</f>
+        <v>13491803</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f>"122969"</f>
+        <v>122969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="str">
+        <f>"20200604"</f>
+        <v>20200604</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>"09:30:15"</f>
+        <v>09:30:15</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>"0184500716"</f>
+        <v>0184500716</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>"159920"</f>
+        <v>159920</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>"恒生ETF"</f>
+        <v>恒生ETF</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>"卖出"</f>
+        <v>卖出</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.387</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2496.6</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2496.35</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f>"0103000000823336"</f>
+        <v>0103000000823336</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f>"21089"</f>
+        <v>21089</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2228,7 +2571,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2237,7 +2580,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2246,7 +2589,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2255,7 +2598,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2264,7 +2607,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>

--- a/spider/huabao/input/华宝证券.xlsx
+++ b/spider/huabao/input/华宝证券.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\spider\huabao\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76024C-41FD-43DF-A4DD-99961D80DB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22394E90-4FFC-4309-818D-50492BC5AA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,13 +2563,62 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="1" t="str">
+        <f>"20200724"</f>
+        <v>20200724</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>"13:49:40"</f>
+        <v>13:49:40</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>"0184500716"</f>
+        <v>0184500716</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>"159920"</f>
+        <v>159920</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>"恒生ETF"</f>
+        <v>恒生ETF</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>"买入"</f>
+        <v>买入</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2491.1999999999998</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-2491.4499999999998</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f>"0103000032353952"</f>
+        <v>0103000032353952</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f>"297249"</f>
+        <v>297249</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
